--- a/Docs/Testing (TES)/Test_Cases/TS_Preview.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Preview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тестовые ситуации" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>N</t>
   </si>
@@ -72,9 +72,6 @@
   <si>
     <t>Убедиться, что в браузере отображается
 страница preview</t>
-  </si>
-  <si>
-    <t>Убедиться, что на странице находится фотография</t>
   </si>
   <si>
     <t>project</t>
@@ -89,12 +86,115 @@
 </t>
   </si>
   <si>
+    <t>Gorshkov</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>ver 1.0</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass</t>
+  </si>
+  <si>
+    <t>Page Represent</t>
+  </si>
+  <si>
+    <t>Убедиться, что на странице находится информация о посте</t>
+  </si>
+  <si>
+    <t>Page Preview</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Pass
+3. Pass
+4. Pass</t>
+  </si>
+  <si>
     <t>1. Убедиться, что на странице отображается layout проекта
 2. Убедиться, что на странице находится фотография
 3. Убедиться, что на странице находится кнопка
 "Buy photo"
 4. Убедиться, что на странице находится ссылка 
-"LEAVE FEEDBACK"</t>
+на пост в google+</t>
+  </si>
+  <si>
+    <t>TS_preview_004</t>
+  </si>
+  <si>
+    <t>Убедиться, что вся фотография на странице
+preview является ссылкой на пост в 
+google+</t>
+  </si>
+  <si>
+    <t>1. Нажать на фотографию на странице preview
+2. Убедиться, что брузер перешел на страницу google+
+3. Убедиться, что в google+ открыт пост с той же фотографией, что была на странице preview</t>
+  </si>
+  <si>
+    <t>TS_preview_005</t>
+  </si>
+  <si>
+    <t>Убедиться, что информация о фотографии
+ измененная на google+ так же изменилась
+на странице preview этой фотографии</t>
+  </si>
+  <si>
+    <t>1. Fail
+2. Fail
+3. Pass
+4. Pass
+5. Pass
+6. Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. N/A
+3. N/A
+4. N/A</t>
+  </si>
+  <si>
+    <t>1. Нажать на фотографию на странице preview
+2. Добавить информацию к фотографии на google+
+3. Перейти на страницу preview измененной фотографии
+4. Убедиться, что информация о фотографии изменилась на добавленную</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>TS_preview_006</t>
+  </si>
+  <si>
+    <t>Работа кнопки "Buy photo"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Buy photo" на странице preview
+2. Убедиться, что браузер перешел на страницу Buy</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Fail</t>
+  </si>
+  <si>
+    <t>#126</t>
+  </si>
+  <si>
+    <t>#127</t>
   </si>
 </sst>
 </file>
@@ -228,8 +328,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I8"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -532,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -576,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -602,7 +702,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="195">
@@ -613,7 +713,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -622,32 +722,62 @@
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="F5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="F6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
@@ -772,17 +902,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" customWidth="1"/>
@@ -819,16 +950,205 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="1">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>B2</f>
+        <v>TS_preview_001</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="str">
+        <f>I2</f>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A8" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="str">
+        <f t="shared" ref="I4:I8" si="1">I3</f>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="90">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ver 1.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing (TES)/Test_Cases/TS_Preview.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Preview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>N</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>#127</t>
+  </si>
+  <si>
+    <t>ver 1.1</t>
   </si>
 </sst>
 </file>
@@ -328,8 +331,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I8" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I11"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -902,10 +905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1032,7 +1035,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="str">
-        <f t="shared" ref="I4:I8" si="1">I3</f>
+        <f t="shared" ref="I4:I11" si="1">I3</f>
         <v>ver 1.0</v>
       </c>
     </row>
@@ -1149,6 +1152,53 @@
         <f t="shared" si="1"/>
         <v>ver 1.0</v>
       </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Testing (TES)/Test_Cases/TS_Preview.xlsx
+++ b/Docs/Testing (TES)/Test_Cases/TS_Preview.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="49">
   <si>
     <t>N</t>
   </si>
@@ -162,21 +162,12 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>1. Pass
-2. N/A
-3. N/A
-4. N/A</t>
-  </si>
-  <si>
     <t>1. Нажать на фотографию на странице preview
 2. Добавить информацию к фотографии на google+
 3. Перейти на страницу preview измененной фотографии
 4. Убедиться, что информация о фотографии изменилась на добавленную</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>TS_preview_006</t>
   </si>
   <si>
@@ -198,6 +189,23 @@
   </si>
   <si>
     <t>ver 1.1</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Blocked
+3. Blocked
+4. Blocked</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>1. Pass
+2. Fail
+3. Pass
+4. Pass
+5. Pass
+6. Pass</t>
   </si>
 </sst>
 </file>
@@ -331,8 +339,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A1:I16" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I16"/>
   <tableColumns count="9">
     <tableColumn id="2" name="N" dataDxfId="8"/>
     <tableColumn id="3" name="Test ID" dataDxfId="7"/>
@@ -636,7 +644,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -761,7 +769,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
@@ -769,17 +777,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -905,10 +913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1035,7 +1043,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="str">
-        <f t="shared" ref="I4:I11" si="1">I3</f>
+        <f t="shared" ref="I4:I8" si="1">I3</f>
         <v>ver 1.0</v>
       </c>
     </row>
@@ -1063,7 +1071,7 @@
         <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1113,12 +1121,14 @@
         <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>ver 1.0</v>
@@ -1130,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1140,13 +1150,13 @@
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1158,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1175,30 +1185,210 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="1">
+        <f>A9+1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="str">
+        <f>I9</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="1">
+        <f>A10+1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>B10</f>
+        <v>TS_preview_001</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1" t="str">
+        <f>I10</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60">
+      <c r="A12" s="1">
+        <f t="shared" ref="A12:A16" si="2">A11+1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="str">
+        <f t="shared" ref="I12:I16" si="3">I11</f>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="90">
+      <c r="A13" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45">
+      <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60">
+      <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>ver 1.1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
